--- a/log/log_201508030308_刘聪.xlsx
+++ b/log/log_201508030308_刘聪.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>1.学习Hibernate的二级缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +531,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -637,7 +649,7 @@
         <v>43227</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -679,7 +691,7 @@
         <v>43230</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -693,7 +705,7 @@
         <v>43231</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -707,7 +719,7 @@
         <v>43232</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -721,7 +733,7 @@
         <v>43233</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -777,7 +789,7 @@
         <v>43237</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -791,7 +803,7 @@
         <v>43239</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -805,7 +817,7 @@
         <v>43240</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
